--- a/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_op_measure2.xlsx
+++ b/Impact_Missing_on_Aggregate_Insights/raw_results/db_missing_zipf_op_measure2.xlsx
@@ -37,16 +37,19 @@
     <t>gender</t>
   </si>
   <si>
-    <t>admission_type_id</t>
+    <t>admission_source_id</t>
   </si>
   <si>
-    <t>admission_source_id</t>
+    <t>admission_type_id</t>
   </si>
   <si>
     <t>age</t>
   </si>
   <si>
     <t>diabetesmed</t>
+  </si>
+  <si>
+    <t>discharge_disposition_id</t>
   </si>
   <si>
     <t>insulin</t>
@@ -67,9 +70,6 @@
     <t>change</t>
   </si>
   <si>
-    <t>discharge_disposition_id</t>
-  </si>
-  <si>
     <t>number_emergency</t>
   </si>
   <si>
@@ -79,16 +79,16 @@
     <t>number_outpatient</t>
   </si>
   <si>
-    <t>num_lab_procedures</t>
+    <t>time_in_hospital</t>
   </si>
   <si>
-    <t>time_in_hospital</t>
+    <t>num_medications</t>
   </si>
   <si>
     <t>number_diagnoses</t>
   </si>
   <si>
-    <t>num_medications</t>
+    <t>num_lab_procedures</t>
   </si>
   <si>
     <t>num_procedures</t>
@@ -498,7 +498,7 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1.304953506093113</v>
+        <v>1.304781789706974</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -515,7 +515,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1.297753726693972</v>
+        <v>1.298183340691177</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -549,7 +549,7 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1.243636487926766</v>
+        <v>1.240873720384782</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -566,7 +566,7 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1.195228609334394</v>
+        <v>1.186342028003479</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -583,7 +583,7 @@
         <v>28</v>
       </c>
       <c r="E7">
-        <v>1.185432999645296</v>
+        <v>1.184900438715245</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1.175735064194511</v>
+        <v>1.170790628727635</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -634,7 +634,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1.172276475922529</v>
+        <v>1.165335706788554</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1.16441549956303</v>
+        <v>1.164862931492765</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -662,13 +662,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12">
-        <v>1.164396488551727</v>
+        <v>1.164196437188774</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -679,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>1.163495704744858</v>
+        <v>1.160708493997058</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -696,13 +696,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1.162236070622505</v>
+        <v>1.154700538379251</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -713,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -730,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
@@ -747,13 +747,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1.154700538379251</v>
+        <v>1.146423008442222</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>1.144008636492166</v>
+        <v>1.133501107911952</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -781,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>1.134310438098229</v>
+        <v>1.126285274039627</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -804,7 +804,7 @@
         <v>28</v>
       </c>
       <c r="E20">
-        <v>1.100280047028476</v>
+        <v>1.097346024754889</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -815,13 +815,13 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>
       <c r="E21">
-        <v>0.9872413582217254</v>
+        <v>0.981176953009959</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -838,7 +838,7 @@
         <v>28</v>
       </c>
       <c r="E22">
-        <v>0.9776629056374341</v>
+        <v>0.980072990398851</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -849,13 +849,13 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
       </c>
       <c r="E23">
-        <v>0.9761772852764201</v>
+        <v>0.9761278388608051</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -866,13 +866,13 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
       </c>
       <c r="E24">
-        <v>0.9691596903823185</v>
+        <v>0.9716378448474599</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -883,13 +883,13 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
       <c r="E25">
-        <v>0.9678332062082983</v>
+        <v>0.9667912772558467</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -900,13 +900,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
       </c>
       <c r="E26">
-        <v>0.9668667872466524</v>
+        <v>0.9657758153035449</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -917,13 +917,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27">
-        <v>0.9663785274153225</v>
+        <v>0.9650363282530335</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -934,13 +934,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28">
-        <v>0.9656936780395458</v>
+        <v>0.9648999145947612</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -951,13 +951,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
       </c>
       <c r="E29">
-        <v>0.9652511098436826</v>
+        <v>0.9645962967862404</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -968,13 +968,13 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
       </c>
       <c r="E30">
-        <v>0.9652124479861486</v>
+        <v>0.9642151034474364</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -985,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
         <v>29</v>
       </c>
       <c r="E31">
-        <v>0.9650717850355586</v>
+        <v>0.964102770892186</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1002,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
         <v>29</v>
       </c>
       <c r="E32">
-        <v>0.9602544023509323</v>
+        <v>0.96343511461299</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1025,7 +1025,7 @@
         <v>28</v>
       </c>
       <c r="E33">
-        <v>0.9384219045823819</v>
+        <v>0.9360306680806302</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1042,7 +1042,7 @@
         <v>27</v>
       </c>
       <c r="E34">
-        <v>0.733948997178691</v>
+        <v>0.8021086942540392</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1059,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="E35">
-        <v>0.733948997178691</v>
+        <v>0.7148116611777616</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1076,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="E36">
-        <v>0.7148116611777616</v>
+        <v>0.6940345670909434</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1093,7 +1093,7 @@
         <v>27</v>
       </c>
       <c r="E37">
-        <v>0.7115898771460322</v>
+        <v>0.6873358389867035</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1127,7 +1127,7 @@
         <v>27</v>
       </c>
       <c r="E39">
-        <v>0.6037914697216047</v>
+        <v>0.6455067015736846</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1144,7 +1144,7 @@
         <v>27</v>
       </c>
       <c r="E40">
-        <v>0.5869022612420183</v>
+        <v>0.6037914697216047</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1161,7 +1161,7 @@
         <v>27</v>
       </c>
       <c r="E41">
-        <v>0.5814691205097121</v>
+        <v>0.5869022612420183</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1178,7 +1178,7 @@
         <v>26</v>
       </c>
       <c r="E42">
-        <v>0.5750177406038943</v>
+        <v>0.5816441948193081</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1186,16 +1186,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
         <v>27</v>
       </c>
       <c r="E43">
-        <v>0.5635773136718069</v>
+        <v>0.5814691205097121</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1203,7 +1203,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
         <v>20</v>
@@ -1212,7 +1212,7 @@
         <v>27</v>
       </c>
       <c r="E44">
-        <v>0.5547001962252291</v>
+        <v>0.5635773136718069</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1220,7 +1220,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
         <v>20</v>
@@ -1229,7 +1229,7 @@
         <v>27</v>
       </c>
       <c r="E45">
-        <v>0.5274560679273101</v>
+        <v>0.5547001962252291</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1240,13 +1240,13 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E46">
-        <v>0.5143393237369981</v>
+        <v>0.5274560679273101</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1254,16 +1254,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E47">
-        <v>0.4880711008692505</v>
+        <v>0.5234131285376225</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1274,13 +1274,13 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
       </c>
       <c r="E48">
-        <v>0.4771187236136979</v>
+        <v>0.4880711008692505</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1288,16 +1288,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
       </c>
       <c r="E49">
-        <v>0.4616103466664636</v>
+        <v>0.4771187236136979</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1305,7 +1305,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -1314,7 +1314,7 @@
         <v>27</v>
       </c>
       <c r="E50">
-        <v>0.4610112019472001</v>
+        <v>0.4712414332508487</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1322,16 +1322,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
         <v>27</v>
       </c>
       <c r="E51">
-        <v>0.4480620839084176</v>
+        <v>0.4618802153517007</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1339,16 +1339,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E52">
-        <v>0.4473270956629545</v>
+        <v>0.4616103466664636</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1356,16 +1356,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
         <v>27</v>
       </c>
       <c r="E53">
-        <v>0.4416090442458402</v>
+        <v>0.4610112019472001</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1373,7 +1373,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
@@ -1382,7 +1382,7 @@
         <v>27</v>
       </c>
       <c r="E54">
-        <v>0.440086229423352</v>
+        <v>0.4579505105103894</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E55">
-        <v>0.4309066795526431</v>
+        <v>0.4517882646732598</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1407,7 +1407,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>20</v>
@@ -1416,7 +1416,7 @@
         <v>27</v>
       </c>
       <c r="E56">
-        <v>0.4190581774617468</v>
+        <v>0.4480620839084176</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1427,13 +1427,13 @@
         <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E57">
-        <v>0.4108450393899411</v>
+        <v>0.4309066795526431</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1441,16 +1441,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D58" t="s">
         <v>27</v>
       </c>
       <c r="E58">
-        <v>0.40448412733996</v>
+        <v>0.4239855411282005</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1458,16 +1458,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D59" t="s">
         <v>27</v>
       </c>
       <c r="E59">
-        <v>0.3995538202738515</v>
+        <v>0.4190581774617468</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1475,16 +1475,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E60">
-        <v>0.3953540526397888</v>
+        <v>0.4176106146035482</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1495,13 +1495,13 @@
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
         <v>27</v>
       </c>
       <c r="E61">
-        <v>0.3917247450213849</v>
+        <v>0.410683538336964</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1512,13 +1512,13 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E62">
-        <v>0.3850432223048694</v>
+        <v>0.408769045728045</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1529,13 +1529,13 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E63">
-        <v>0.3825427632223676</v>
+        <v>0.4032951923359506</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
         <v>27</v>
       </c>
       <c r="E64">
-        <v>0.3822333624585574</v>
+        <v>0.4009791936316524</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1560,16 +1560,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D65" t="s">
         <v>28</v>
       </c>
       <c r="E65">
-        <v>0.3817333950832223</v>
+        <v>0.3975864087616371</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E66">
-        <v>0.3776849225449387</v>
+        <v>0.3825427632223676</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1594,7 +1594,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
         <v>19</v>
@@ -1603,7 +1603,7 @@
         <v>27</v>
       </c>
       <c r="E67">
-        <v>0.3701427423542357</v>
+        <v>0.3779644730092272</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E68">
-        <v>0.3596807731458178</v>
+        <v>0.3779644730092272</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1628,7 +1628,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
         <v>19</v>
@@ -1637,7 +1637,7 @@
         <v>27</v>
       </c>
       <c r="E69">
-        <v>0.3535533905932737</v>
+        <v>0.3756714418984553</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E70">
-        <v>0.3498285100979472</v>
+        <v>0.3743412814295551</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E71">
-        <v>0.3396831102433788</v>
+        <v>0.3724258109067645</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1679,16 +1679,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E72">
-        <v>0.3352512069525483</v>
+        <v>0.3632187997201318</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E73">
-        <v>0.3345800729369347</v>
+        <v>0.3566193090507278</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1713,7 +1713,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
         <v>19</v>
@@ -1722,7 +1722,7 @@
         <v>26</v>
       </c>
       <c r="E74">
-        <v>0.3335311256838416</v>
+        <v>0.3466532705492895</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1733,13 +1733,13 @@
         <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E75">
-        <v>0.3192029875544426</v>
+        <v>0.3406048341371518</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1747,16 +1747,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E76">
-        <v>0.3178719092152948</v>
+        <v>0.340338237390564</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D77" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E77">
-        <v>0.3171726045862545</v>
+        <v>0.3391200882699457</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E78">
-        <v>0.3163377736853462</v>
+        <v>0.3337318699285036</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1798,16 +1798,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E79">
-        <v>0.3162644577575215</v>
+        <v>0.3328888707894503</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1815,16 +1815,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
         <v>27</v>
       </c>
       <c r="E80">
-        <v>0.3142570966758024</v>
+        <v>0.3287402856946445</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1835,13 +1835,13 @@
         <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E81">
-        <v>0.3126944484599881</v>
+        <v>0.3070045884864694</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D82" t="s">
         <v>27</v>
       </c>
       <c r="E82">
-        <v>0.3107751543820654</v>
+        <v>0.3046804698027843</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E83">
-        <v>0.3107277331329326</v>
+        <v>0.3017067248090411</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D84" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E84">
-        <v>0.3090119894626263</v>
+        <v>0.2998921999729728</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D85" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E85">
-        <v>0.3069089494146769</v>
+        <v>0.2952728627810982</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E86">
-        <v>0.304724700110022</v>
+        <v>0.293837333623076</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E87">
-        <v>0.304724700110022</v>
+        <v>0.2935356437018299</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E88">
-        <v>0.3024310708560862</v>
+        <v>0.2927748349248602</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E89">
-        <v>0.3008420621884146</v>
+        <v>0.2922619852579359</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1985,16 +1985,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E90">
-        <v>0.2990814641305473</v>
+        <v>0.2909138943594162</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2002,16 +2002,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E91">
-        <v>0.2987079593051418</v>
+        <v>0.2846096702783565</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E92">
-        <v>0.2961003894229222</v>
+        <v>0.2841171267021185</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2036,7 +2036,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C93" t="s">
         <v>20</v>
@@ -2045,7 +2045,7 @@
         <v>26</v>
       </c>
       <c r="E93">
-        <v>0.2910846501699263</v>
+        <v>0.2830919579335914</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E94">
-        <v>0.2887763336071623</v>
+        <v>0.2820833837623143</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
         <v>26</v>
       </c>
       <c r="E95">
-        <v>0.2860306431131503</v>
+        <v>0.2802042408058862</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E96">
-        <v>0.2838449981012</v>
+        <v>0.2764439343430092</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E97">
-        <v>0.2837599586630556</v>
+        <v>0.2745067595462097</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2124,13 +2124,13 @@
         <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E98">
-        <v>0.2829649962801221</v>
+        <v>0.2721376286073675</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,16 +2138,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E99">
-        <v>0.2810382881071404</v>
+        <v>0.2720363855560753</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D100" t="s">
         <v>26</v>
       </c>
       <c r="E100">
-        <v>0.2790979284696579</v>
+        <v>0.2704560952532658</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D101" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E101">
-        <v>0.278587658789966</v>
+        <v>0.2687456751562639</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D102" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E102">
-        <v>0.275009339372125</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C103" t="s">
         <v>22</v>
       </c>
       <c r="D103" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E103">
-        <v>0.2745802871381576</v>
+        <v>0.261583047494697</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D104" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E104">
-        <v>0.2736377297370954</v>
+        <v>0.2593607210315112</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E105">
-        <v>0.2720363855560753</v>
+        <v>0.2572950872862917</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D106" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E106">
-        <v>0.2716072381275557</v>
+        <v>0.2570496406376944</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E107">
-        <v>0.2706153766946751</v>
+        <v>0.255771302335296</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D108" t="s">
         <v>27</v>
       </c>
       <c r="E108">
-        <v>0.2686076546751267</v>
+        <v>0.2554875382433694</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2308,16 +2308,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D109" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E109">
-        <v>0.266180898967816</v>
+        <v>0.2548894721060145</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D110" t="s">
         <v>29</v>
       </c>
       <c r="E110">
-        <v>0.2611587395471542</v>
+        <v>0.2537867217107804</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D111" t="s">
         <v>29</v>
       </c>
       <c r="E111">
-        <v>0.2587170769445811</v>
+        <v>0.253318087759787</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>21</v>
       </c>
       <c r="D112" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E112">
-        <v>0.2586736311739247</v>
+        <v>0.2528515360174072</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2379,13 +2379,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D113" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E113">
-        <v>0.2583964655415671</v>
+        <v>0.2517437127310159</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E114">
-        <v>0.2569532674816281</v>
+        <v>0.243338601874362</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2410,16 +2410,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E115">
-        <v>0.2567762955065478</v>
+        <v>0.2426976370593073</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E116">
-        <v>0.2558234811239</v>
+        <v>0.242066247418174</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D117" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E117">
-        <v>0.2551772712606722</v>
+        <v>0.2415250133292247</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2464,13 +2464,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D118" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E118">
-        <v>0.2469864849322444</v>
+        <v>0.2371110735860862</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2481,13 +2481,13 @@
         <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D119" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E119">
-        <v>0.2465314547936199</v>
+        <v>0.236745848606982</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D120" t="s">
         <v>29</v>
       </c>
       <c r="E120">
-        <v>0.2438568235944546</v>
+        <v>0.2298742895033065</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D121" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E121">
-        <v>0.2438510407501967</v>
+        <v>0.2294243127820058</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D122" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E122">
-        <v>0.2383140634069889</v>
+        <v>0.2288235240674716</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2546,7 +2546,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C123" t="s">
         <v>25</v>
@@ -2555,7 +2555,7 @@
         <v>29</v>
       </c>
       <c r="E123">
-        <v>0.2379950836321446</v>
+        <v>0.2272488148481339</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E124">
-        <v>0.2375496541753011</v>
+        <v>0.2265442369733754</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D125" t="s">
         <v>29</v>
       </c>
       <c r="E125">
-        <v>0.2373795117858787</v>
+        <v>0.2261086248596624</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D126" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E126">
-        <v>0.2356314318857067</v>
+        <v>0.2260400421847091</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C127" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D127" t="s">
         <v>29</v>
       </c>
       <c r="E127">
-        <v>0.2319683377490755</v>
+        <v>0.225063010377709</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D128" t="s">
         <v>29</v>
       </c>
       <c r="E128">
-        <v>0.2315268869481262</v>
+        <v>0.2240829743999274</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2648,16 +2648,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D129" t="s">
         <v>28</v>
       </c>
       <c r="E129">
-        <v>0.2307358981450983</v>
+        <v>0.2239664188457333</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2668,13 +2668,13 @@
         <v>10</v>
       </c>
       <c r="C130" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D130" t="s">
         <v>29</v>
       </c>
       <c r="E130">
-        <v>0.2286391261074404</v>
+        <v>0.2237558056503239</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2682,16 +2682,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C131" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D131" t="s">
         <v>29</v>
       </c>
       <c r="E131">
-        <v>0.2279468495149127</v>
+        <v>0.2230602232015031</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
         <v>21</v>
       </c>
       <c r="D132" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E132">
-        <v>0.2272068415698577</v>
+        <v>0.2219606994660226</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D133" t="s">
         <v>29</v>
       </c>
       <c r="E133">
-        <v>0.2265855681041087</v>
+        <v>0.2207693118415059</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2733,16 +2733,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C134" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D134" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E134">
-        <v>0.2257577618899371</v>
+        <v>0.2204115399735627</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2759,7 +2759,7 @@
         <v>29</v>
       </c>
       <c r="E135">
-        <v>0.2255280037549817</v>
+        <v>0.2201635273318488</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2767,16 +2767,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C136" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D136" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E136">
-        <v>0.2247578597231613</v>
+        <v>0.220014708318759</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2787,13 +2787,13 @@
         <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D137" t="s">
         <v>28</v>
       </c>
       <c r="E137">
-        <v>0.2242682813713462</v>
+        <v>0.2199112036546438</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2804,13 +2804,13 @@
         <v>11</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D138" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E138">
-        <v>0.224248019492807</v>
+        <v>0.2192415919780793</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2818,16 +2818,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C139" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D139" t="s">
         <v>28</v>
       </c>
       <c r="E139">
-        <v>0.2240781018457982</v>
+        <v>0.217313042848587</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2838,13 +2838,13 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E140">
-        <v>0.2236067977499791</v>
+        <v>0.216887431468696</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2861,7 +2861,7 @@
         <v>29</v>
       </c>
       <c r="E141">
-        <v>0.2233466865270322</v>
+        <v>0.2168754928045035</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2872,13 +2872,13 @@
         <v>10</v>
       </c>
       <c r="C142" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D142" t="s">
         <v>29</v>
       </c>
       <c r="E142">
-        <v>0.2227150291231376</v>
+        <v>0.21627949513544</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D143" t="s">
         <v>28</v>
       </c>
       <c r="E143">
-        <v>0.22239416672485</v>
+        <v>0.215756321944399</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D144" t="s">
         <v>28</v>
       </c>
       <c r="E144">
-        <v>0.2221474435320299</v>
+        <v>0.2153065135886651</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E145">
-        <v>0.2215428405015624</v>
+        <v>0.2152922285808419</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2937,16 +2937,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C146" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E146">
-        <v>0.2211064653339943</v>
+        <v>0.2152664206777206</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D147" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E147">
-        <v>0.2197022316429601</v>
+        <v>0.2146085383309759</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D148" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E148">
-        <v>0.218987674384034</v>
+        <v>0.2124158986383207</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C149" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D149" t="s">
         <v>28</v>
       </c>
       <c r="E149">
-        <v>0.2187847780842596</v>
+        <v>0.2121425457498804</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3005,7 +3005,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C150" t="s">
         <v>21</v>
@@ -3014,7 +3014,7 @@
         <v>28</v>
       </c>
       <c r="E150">
-        <v>0.2183759980983232</v>
+        <v>0.2118951840373005</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C151" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E151">
-        <v>0.217485018375906</v>
+        <v>0.2103481393374963</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C152" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D152" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E152">
-        <v>0.2173398431873559</v>
+        <v>0.2102646116470145</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C153" t="s">
         <v>25</v>
       </c>
       <c r="D153" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E153">
-        <v>0.2166020081631786</v>
+        <v>0.2101974036061298</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C154" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D154" t="s">
         <v>29</v>
       </c>
       <c r="E154">
-        <v>0.216468043331456</v>
+        <v>0.2098244433358785</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C155" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D155" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E155">
-        <v>0.2150203894270984</v>
+        <v>0.2085144140570747</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3107,16 +3107,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>18</v>
       </c>
       <c r="D156" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E156">
-        <v>0.2132520448071058</v>
+        <v>0.2076243330552472</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D157" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E157">
-        <v>0.2129685340669308</v>
+        <v>0.207011686217025</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C158" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D158" t="s">
         <v>29</v>
       </c>
       <c r="E158">
-        <v>0.2115304534159981</v>
+        <v>0.2067860787712066</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3158,16 +3158,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C159" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D159" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E159">
-        <v>0.2104775750808559</v>
+        <v>0.206719306973106</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3175,16 +3175,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D160" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E160">
-        <v>0.2094773029413202</v>
+        <v>0.2055328994814919</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3192,7 +3192,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C161" t="s">
         <v>20</v>
@@ -3201,7 +3201,7 @@
         <v>28</v>
       </c>
       <c r="E161">
-        <v>0.2088969370371904</v>
+        <v>0.2054661578213879</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C162" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E162">
-        <v>0.2083785592827064</v>
+        <v>0.204895730844117</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3226,16 +3226,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D163" t="s">
         <v>28</v>
       </c>
       <c r="E163">
-        <v>0.206654045759237</v>
+        <v>0.2046599336167704</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3243,16 +3243,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C164" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D164" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E164">
-        <v>0.2064971011757264</v>
+        <v>0.2045109670620816</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C165" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D165" t="s">
         <v>29</v>
       </c>
       <c r="E165">
-        <v>0.2063597394078956</v>
+        <v>0.2038241139040979</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3277,16 +3277,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C166" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D166" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E166">
-        <v>0.205479727791029</v>
+        <v>0.2037421587354673</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3294,7 +3294,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C167" t="s">
         <v>18</v>
@@ -3303,7 +3303,7 @@
         <v>29</v>
       </c>
       <c r="E167">
-        <v>0.2050771911542358</v>
+        <v>0.2034060151857544</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C168" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D168" t="s">
         <v>27</v>
       </c>
       <c r="E168">
-        <v>0.2042681046490122</v>
+        <v>0.2033553133277973</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E169">
-        <v>0.2039648270762247</v>
+        <v>0.2025247949829529</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C170" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D170" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E170">
-        <v>0.2037481867370932</v>
+        <v>0.2023081858160262</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C171" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D171" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E171">
-        <v>0.2036138899180011</v>
+        <v>0.1984957234272641</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C172" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D172" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E172">
-        <v>0.2020762430655128</v>
+        <v>0.1984925544842124</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D173" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E173">
-        <v>0.2020745988675819</v>
+        <v>0.1978973259000304</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D174" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E174">
-        <v>0.1998715663387832</v>
+        <v>0.1966941709746308</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D175" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E175">
-        <v>0.1990103866880653</v>
+        <v>0.196149817600457</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C176" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D176" t="s">
         <v>28</v>
       </c>
       <c r="E176">
-        <v>0.1988590719895691</v>
+        <v>0.1951818354003515</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3464,16 +3464,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D177" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E177">
-        <v>0.1982911528348349</v>
+        <v>0.1951659158444838</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D178" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E178">
-        <v>0.1980617945086434</v>
+        <v>0.1925113950593224</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D179" t="s">
         <v>28</v>
       </c>
       <c r="E179">
-        <v>0.1962626314038029</v>
+        <v>0.1923642909658727</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D180" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E180">
-        <v>0.196149817600457</v>
+        <v>0.1919058426847537</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C181" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D181" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E181">
-        <v>0.1954187669903892</v>
+        <v>0.191728300457291</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D182" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E182">
-        <v>0.1952125094391282</v>
+        <v>0.1899271864902336</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C183" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D183" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E183">
-        <v>0.1917853205941537</v>
+        <v>0.1897897429468646</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C184" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D184" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E184">
-        <v>0.1913941530952588</v>
+        <v>0.1892206608531246</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C185" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D185" t="s">
         <v>29</v>
       </c>
       <c r="E185">
-        <v>0.1913915378795693</v>
+        <v>0.1886598983293792</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C186" t="s">
         <v>24</v>
       </c>
       <c r="D186" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E186">
-        <v>0.1913396212127854</v>
+        <v>0.1877846018108904</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3634,7 +3634,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>25</v>
@@ -3643,7 +3643,7 @@
         <v>28</v>
       </c>
       <c r="E187">
-        <v>0.1904795320587084</v>
+        <v>0.1876123065402684</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C188" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D188" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E188">
-        <v>0.1893803554139405</v>
+        <v>0.1869377921256062</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3671,13 +3671,13 @@
         <v>12</v>
       </c>
       <c r="C189" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D189" t="s">
         <v>26</v>
       </c>
       <c r="E189">
-        <v>0.1875930489833028</v>
+        <v>0.1862519732680858</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3685,16 +3685,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C190" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D190" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E190">
-        <v>0.1875777002425639</v>
+        <v>0.1858397682895912</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C191" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D191" t="s">
         <v>28</v>
       </c>
       <c r="E191">
-        <v>0.1870587695659595</v>
+        <v>0.1849983264971811</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D192" t="s">
         <v>28</v>
       </c>
       <c r="E192">
-        <v>0.1870060624580928</v>
+        <v>0.1810232664223086</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C193" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D193" t="s">
         <v>26</v>
       </c>
       <c r="E193">
-        <v>0.1853277821268662</v>
+        <v>0.179857315883881</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C194" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D194" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E194">
-        <v>0.1827646978581668</v>
+        <v>0.1792247540424884</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3770,7 +3770,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C195" t="s">
         <v>18</v>
@@ -3779,7 +3779,7 @@
         <v>26</v>
       </c>
       <c r="E195">
-        <v>0.180570628083969</v>
+        <v>0.1791873081700155</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3790,13 +3790,13 @@
         <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D196" t="s">
         <v>29</v>
       </c>
       <c r="E196">
-        <v>0.1801073946444805</v>
+        <v>0.1784333046613649</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C197" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D197" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E197">
-        <v>0.1778498389106674</v>
+        <v>0.1776558030290504</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3827,10 +3827,10 @@
         <v>22</v>
       </c>
       <c r="D198" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E198">
-        <v>0.177696520035364</v>
+        <v>0.1774193620569683</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3841,13 +3841,13 @@
         <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D199" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E199">
-        <v>0.1745854320874981</v>
+        <v>0.1760899182674207</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C200" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E200">
-        <v>0.1745762141022589</v>
+        <v>0.1755188580490507</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>18</v>
       </c>
       <c r="D201" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E201">
-        <v>0.1736983883417311</v>
+        <v>0.1752885259707753</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C202" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D202" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E202">
-        <v>0.1736019010143341</v>
+        <v>0.1752165764828106</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3906,16 +3906,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D203" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E203">
-        <v>0.1729976772317818</v>
+        <v>0.1750134064231877</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3923,16 +3923,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D204" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E204">
-        <v>0.1726740608256034</v>
+        <v>0.1740304408892362</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
         <v>25</v>
       </c>
       <c r="D205" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E205">
-        <v>0.1722439249701434</v>
+        <v>0.1720360442020747</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3957,16 +3957,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D206" t="s">
         <v>28</v>
       </c>
       <c r="E206">
-        <v>0.1718176230805976</v>
+        <v>0.1712112887807395</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C207" t="s">
         <v>22</v>
       </c>
       <c r="D207" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E207">
-        <v>0.1711108198832827</v>
+        <v>0.1709007273357952</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C208" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D208" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E208">
-        <v>0.1697388833429302</v>
+        <v>0.1703451516144902</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D209" t="s">
         <v>29</v>
       </c>
       <c r="E209">
-        <v>0.167574460462676</v>
+        <v>0.168955958537569</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C210" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D210" t="s">
         <v>26</v>
       </c>
       <c r="E210">
-        <v>0.1666783511540177</v>
+        <v>0.168511934870552</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D211" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E211">
-        <v>0.1652882600768872</v>
+        <v>0.1681222630717229</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C212" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D212" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E212">
-        <v>0.1651445647689539</v>
+        <v>0.1592624761969647</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4076,16 +4076,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C213" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D213" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E213">
-        <v>0.1633385890818038</v>
+        <v>0.1584767330248125</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D214" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E214">
-        <v>0.1628242674889072</v>
+        <v>0.1579591460836671</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C215" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D215" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E215">
-        <v>0.1625797612900384</v>
+        <v>0.1576052083074997</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C216" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D216" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E216">
-        <v>0.1611694797850071</v>
+        <v>0.1564655790974953</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C217" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D217" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E217">
-        <v>0.1602307106346246</v>
+        <v>0.1558505135238057</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C218" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D218" t="s">
         <v>28</v>
       </c>
       <c r="E218">
-        <v>0.1595657169217818</v>
+        <v>0.1548583771473983</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C219" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D219" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E219">
-        <v>0.1589551487604342</v>
+        <v>0.1525493014342</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C220" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D220" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E220">
-        <v>0.1575408133523245</v>
+        <v>0.1517829142644203</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C221" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D221" t="s">
         <v>28</v>
       </c>
       <c r="E221">
-        <v>0.1572341459776871</v>
+        <v>0.151768960104181</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C222" t="s">
         <v>21</v>
       </c>
       <c r="D222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E222">
-        <v>0.1565060565802651</v>
+        <v>0.1507487305847492</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C223" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D223" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E223">
-        <v>0.1544164567459175</v>
+        <v>0.149188346518742</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D224" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E224">
-        <v>0.1536083813491132</v>
+        <v>0.1486365200007863</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="C225" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D225" t="s">
         <v>28</v>
       </c>
       <c r="E225">
-        <v>0.1531041653859905</v>
+        <v>0.1485316381945185</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C226" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D226" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E226">
-        <v>0.152828311612967</v>
+        <v>0.1470873949235455</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C227" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D227" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E227">
-        <v>0.1522773975253763</v>
+        <v>0.1461188149824634</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4331,16 +4331,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D228" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E228">
-        <v>0.1517511169286228</v>
+        <v>0.1457150877962494</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D229" t="s">
         <v>29</v>
       </c>
       <c r="E229">
-        <v>0.1509202414189497</v>
+        <v>0.1454752056876346</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4368,13 +4368,13 @@
         <v>9</v>
       </c>
       <c r="C230" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D230" t="s">
         <v>28</v>
       </c>
       <c r="E230">
-        <v>0.1508582353229972</v>
+        <v>0.1453226215896561</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4382,16 +4382,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C231" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D231" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E231">
-        <v>0.1504126871597136</v>
+        <v>0.1450249378013787</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C232" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D232" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E232">
-        <v>0.149615677217104</v>
+        <v>0.145022644967881</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D233" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E233">
-        <v>0.1494943367322273</v>
+        <v>0.1448303651826399</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D234" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E234">
-        <v>0.1486783883350056</v>
+        <v>0.144215690866218</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4450,7 +4450,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C235" t="s">
         <v>24</v>
@@ -4459,7 +4459,7 @@
         <v>26</v>
       </c>
       <c r="E235">
-        <v>0.1483893190915185</v>
+        <v>0.1437306102306889</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C236" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D236" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E236">
-        <v>0.1472125511113603</v>
+        <v>0.1434680400220482</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4484,16 +4484,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D237" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E237">
-        <v>0.1458029608799511</v>
+        <v>0.1431607808686304</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4501,16 +4501,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D238" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E238">
-        <v>0.1457112628177876</v>
+        <v>0.1431399317210592</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4518,7 +4518,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>18</v>
@@ -4527,7 +4527,7 @@
         <v>29</v>
       </c>
       <c r="E239">
-        <v>0.1443253231877627</v>
+        <v>0.142568962642835</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C240" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D240" t="s">
         <v>29</v>
       </c>
       <c r="E240">
-        <v>0.143425031665518</v>
+        <v>0.1420467173963919</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D241" t="s">
         <v>29</v>
       </c>
       <c r="E241">
-        <v>0.142281162886567</v>
+        <v>0.1418339874362961</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C242" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D242" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E242">
-        <v>0.1416847869535459</v>
+        <v>0.1417161822533184</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D243" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E243">
-        <v>0.1415605099270135</v>
+        <v>0.1414888006386947</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C244" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D244" t="s">
         <v>29</v>
       </c>
       <c r="E244">
-        <v>0.1414142693665313</v>
+        <v>0.1408104955456013</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4623,13 +4623,13 @@
         <v>15</v>
       </c>
       <c r="C245" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D245" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E245">
-        <v>0.1411662770525927</v>
+        <v>0.1406285223141305</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C246" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D246" t="s">
         <v>28</v>
       </c>
       <c r="E246">
-        <v>0.1409455180359325</v>
+        <v>0.1401195780232105</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4654,16 +4654,16 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C247" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D247" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E247">
-        <v>0.1400537039674176</v>
+        <v>0.1397243109303924</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4671,16 +4671,16 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C248" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D248" t="s">
         <v>29</v>
       </c>
       <c r="E248">
-        <v>0.1390861106507829</v>
+        <v>0.1395129754797965</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C249" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D249" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E249">
-        <v>0.1388477868813167</v>
+        <v>0.1395078531702081</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4708,13 +4708,13 @@
         <v>16</v>
       </c>
       <c r="C250" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D250" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E250">
-        <v>0.1385320205922474</v>
+        <v>0.1393988995384984</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C251" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D251" t="s">
         <v>29</v>
       </c>
       <c r="E251">
-        <v>0.1382020470240328</v>
+        <v>0.1391659791892994</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C252" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D252" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E252">
-        <v>0.1379903707223576</v>
+        <v>0.1380970097562022</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C253" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D253" t="s">
         <v>29</v>
       </c>
       <c r="E253">
-        <v>0.1378031417487511</v>
+        <v>0.1379303172239554</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4773,16 +4773,16 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C254" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D254" t="s">
         <v>28</v>
       </c>
       <c r="E254">
-        <v>0.1371601947994322</v>
+        <v>0.137523655987432</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C255" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D255" t="s">
         <v>29</v>
       </c>
       <c r="E255">
-        <v>0.13642883474561</v>
+        <v>0.1369380115775442</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D256" t="s">
         <v>29</v>
       </c>
       <c r="E256">
-        <v>0.1360806752367754</v>
+        <v>0.1355268687052644</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C257" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D257" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E257">
-        <v>0.135893792918536</v>
+        <v>0.1352995079714354</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4841,7 +4841,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C258" t="s">
         <v>20</v>
@@ -4850,7 +4850,7 @@
         <v>29</v>
       </c>
       <c r="E258">
-        <v>0.1358013481809217</v>
+        <v>0.1348770183742128</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4858,16 +4858,16 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C259" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D259" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E259">
-        <v>0.1354460392010652</v>
+        <v>0.1344529710007733</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4875,16 +4875,16 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C260" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D260" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E260">
-        <v>0.1351233117042999</v>
+        <v>0.1343238747229974</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C261" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D261" t="s">
         <v>29</v>
       </c>
       <c r="E261">
-        <v>0.1347778255877471</v>
+        <v>0.1341513651243224</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C262" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D262" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E262">
-        <v>0.1345221565350813</v>
+        <v>0.1339557739584373</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4929,13 +4929,13 @@
         <v>6</v>
       </c>
       <c r="C263" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D263" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E263">
-        <v>0.1340582595716344</v>
+        <v>0.13363496245709</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C264" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D264" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E264">
-        <v>0.1339909239193565</v>
+        <v>0.133327671680555</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4963,13 +4963,13 @@
         <v>6</v>
       </c>
       <c r="C265" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D265" t="s">
         <v>29</v>
       </c>
       <c r="E265">
-        <v>0.13387425591303</v>
+        <v>0.1332345146985418</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C266" t="s">
         <v>23</v>
       </c>
       <c r="D266" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E266">
-        <v>0.1335835771949304</v>
+        <v>0.1321475108330215</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4994,16 +4994,16 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C267" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D267" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E267">
-        <v>0.1331180022167567</v>
+        <v>0.1318112138861647</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5011,7 +5011,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C268" t="s">
         <v>25</v>
@@ -5020,7 +5020,7 @@
         <v>26</v>
       </c>
       <c r="E268">
-        <v>0.1325976240179719</v>
+        <v>0.1301123433883976</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5028,16 +5028,16 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C269" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D269" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E269">
-        <v>0.1309529269312078</v>
+        <v>0.1287127817355554</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5045,16 +5045,16 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C270" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D270" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E270">
-        <v>0.130682221701114</v>
+        <v>0.1286256838448936</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5062,16 +5062,16 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C271" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D271" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E271">
-        <v>0.1304426759176765</v>
+        <v>0.1283089882703211</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5079,16 +5079,16 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C272" t="s">
         <v>22</v>
       </c>
       <c r="D272" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E272">
-        <v>0.1303164096021339</v>
+        <v>0.1281992410743663</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5096,16 +5096,16 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C273" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D273" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E273">
-        <v>0.1302417599520069</v>
+        <v>0.1279780637569783</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5113,16 +5113,16 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C274" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D274" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E274">
-        <v>0.1297611017334323</v>
+        <v>0.1278054826120922</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5130,16 +5130,16 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C275" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D275" t="s">
         <v>28</v>
       </c>
       <c r="E275">
-        <v>0.129328267582566</v>
+        <v>0.1276807929157284</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5147,16 +5147,16 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C276" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D276" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E276">
-        <v>0.1277001087212969</v>
+        <v>0.1261353415633794</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5164,16 +5164,16 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C277" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D277" t="s">
         <v>27</v>
       </c>
       <c r="E277">
-        <v>0.127151207987221</v>
+        <v>0.1260693094705371</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5181,16 +5181,16 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C278" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D278" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E278">
-        <v>0.1270608270623316</v>
+        <v>0.1231567682801962</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5198,16 +5198,16 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C279" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D279" t="s">
         <v>29</v>
       </c>
       <c r="E279">
-        <v>0.1263524141369421</v>
+        <v>0.121312662060819</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5215,16 +5215,16 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C280" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D280" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E280">
-        <v>0.1259459673955467</v>
+        <v>0.1210021667458336</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5232,16 +5232,16 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C281" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D281" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E281">
-        <v>0.1248159143404821</v>
+        <v>0.1206876440385816</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5249,16 +5249,16 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C282" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D282" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E282">
-        <v>0.1245285984091623</v>
+        <v>0.1199407938878198</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5266,16 +5266,16 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C283" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D283" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E283">
-        <v>0.1241060787822119</v>
+        <v>0.1196787477097349</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5286,13 +5286,13 @@
         <v>8</v>
       </c>
       <c r="C284" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D284" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E284">
-        <v>0.1237989178327357</v>
+        <v>0.1188597150780477</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5300,16 +5300,16 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C285" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D285" t="s">
         <v>26</v>
       </c>
       <c r="E285">
-        <v>0.1237774033253784</v>
+        <v>0.1185167681864225</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5317,16 +5317,16 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C286" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D286" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E286">
-        <v>0.1233360013188628</v>
+        <v>0.1182960571329857</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5334,16 +5334,16 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C287" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D287" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E287">
-        <v>0.1228878906966539</v>
+        <v>0.1177584260811276</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5351,16 +5351,16 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C288" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D288" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E288">
-        <v>0.1228287725986782</v>
+        <v>0.1177441470320322</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5368,16 +5368,16 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C289" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D289" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E289">
-        <v>0.12249869499106</v>
+        <v>0.1167675194845712</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5385,16 +5385,16 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C290" t="s">
         <v>24</v>
       </c>
       <c r="D290" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E290">
-        <v>0.1222097291333363</v>
+        <v>0.116382902671166</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5402,16 +5402,16 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C291" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D291" t="s">
         <v>29</v>
       </c>
       <c r="E291">
-        <v>0.1213739626692907</v>
+        <v>0.1161936126520772</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5419,16 +5419,16 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C292" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D292" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E292">
-        <v>0.1201090716125677</v>
+        <v>0.1158379653294131</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5436,16 +5436,16 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C293" t="s">
         <v>21</v>
       </c>
       <c r="D293" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E293">
-        <v>0.1199216797437611</v>
+        <v>0.1151426169204558</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5453,16 +5453,16 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C294" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D294" t="s">
         <v>26</v>
       </c>
       <c r="E294">
-        <v>0.1198472596089805</v>
+        <v>0.1145696488072073</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5470,16 +5470,16 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C295" t="s">
         <v>25</v>
       </c>
       <c r="D295" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E295">
-        <v>0.1190356135692138</v>
+        <v>0.1132622833210898</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5487,16 +5487,16 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C296" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D296" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E296">
-        <v>0.118942117965385</v>
+        <v>0.113188563432981</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5504,16 +5504,16 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C297" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D297" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E297">
-        <v>0.1188878736957459</v>
+        <v>0.1129347733260388</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5521,16 +5521,16 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C298" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D298" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E298">
-        <v>0.1174436073583087</v>
+        <v>0.1125118795502324</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5538,16 +5538,16 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C299" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D299" t="s">
         <v>29</v>
       </c>
       <c r="E299">
-        <v>0.1173588034135182</v>
+        <v>0.1120085655690348</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5555,16 +5555,16 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C300" t="s">
         <v>24</v>
       </c>
       <c r="D300" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E300">
-        <v>0.1172971053148057</v>
+        <v>0.1118223460728072</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5572,16 +5572,16 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C301" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D301" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E301">
-        <v>0.1170104109719752</v>
+        <v>0.1108111111978613</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5589,16 +5589,16 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C302" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D302" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E302">
-        <v>0.1159748192754075</v>
+        <v>0.1106143801811604</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5606,16 +5606,16 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C303" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D303" t="s">
         <v>28</v>
       </c>
       <c r="E303">
-        <v>0.1155741377772781</v>
+        <v>0.1102553866469213</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5623,16 +5623,16 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C304" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D304" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E304">
-        <v>0.1155021871815485</v>
+        <v>0.1100234956052837</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5640,16 +5640,16 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C305" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D305" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E305">
-        <v>0.1144591829289601</v>
+        <v>0.1100108868210097</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5657,16 +5657,16 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C306" t="s">
         <v>23</v>
       </c>
       <c r="D306" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E306">
-        <v>0.114230770806876</v>
+        <v>0.1089705676752634</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5674,16 +5674,16 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C307" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D307" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E307">
-        <v>0.11380968838999</v>
+        <v>0.1081258682234615</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5694,13 +5694,13 @@
         <v>15</v>
       </c>
       <c r="C308" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D308" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E308">
-        <v>0.1136208272006893</v>
+        <v>0.1072619335518039</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5708,16 +5708,16 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C309" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D309" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E309">
-        <v>0.1129346269916481</v>
+        <v>0.1059831605904769</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5725,16 +5725,16 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C310" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D310" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E310">
-        <v>0.1128816413858934</v>
+        <v>0.1057884224486496</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5742,16 +5742,16 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C311" t="s">
         <v>19</v>
       </c>
       <c r="D311" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E311">
-        <v>0.1112995965935474</v>
+        <v>0.1054074929647542</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5759,16 +5759,16 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C312" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D312" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E312">
-        <v>0.1112952527143071</v>
+        <v>0.1053038187777691</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5776,16 +5776,16 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C313" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D313" t="s">
         <v>29</v>
       </c>
       <c r="E313">
-        <v>0.1110786974577693</v>
+        <v>0.1043840189066205</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5793,16 +5793,16 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C314" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D314" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E314">
-        <v>0.1109982362863267</v>
+        <v>0.1034859040145865</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5810,16 +5810,16 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C315" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D315" t="s">
         <v>29</v>
       </c>
       <c r="E315">
-        <v>0.1108842332730735</v>
+        <v>0.1030268404642546</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5827,16 +5827,16 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C316" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D316" t="s">
         <v>26</v>
       </c>
       <c r="E316">
-        <v>0.1105712566664015</v>
+        <v>0.1027176434331713</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5844,16 +5844,16 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C317" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D317" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E317">
-        <v>0.1105545829555715</v>
+        <v>0.1022740555836159</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5861,16 +5861,16 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C318" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D318" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E318">
-        <v>0.109836285506517</v>
+        <v>0.1018884479858106</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5878,16 +5878,16 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C319" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D319" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E319">
-        <v>0.1098362674296245</v>
+        <v>0.1018455560314555</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5895,16 +5895,16 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C320" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D320" t="s">
         <v>28</v>
       </c>
       <c r="E320">
-        <v>0.1093773410261741</v>
+        <v>0.1018125149019609</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5912,16 +5912,16 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C321" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D321" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E321">
-        <v>0.1091054354471824</v>
+        <v>0.101610569481631</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5929,16 +5929,16 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C322" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D322" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E322">
-        <v>0.108197436420395</v>
+        <v>0.1009877408082006</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5946,16 +5946,16 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C323" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D323" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E323">
-        <v>0.1080566516087653</v>
+        <v>0.1004470667163798</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5963,16 +5963,16 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C324" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D324" t="s">
         <v>28</v>
       </c>
       <c r="E324">
-        <v>0.1075713437515857</v>
+        <v>0.09914128398615622</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5980,16 +5980,16 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C325" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D325" t="s">
         <v>26</v>
       </c>
       <c r="E325">
-        <v>0.1075044454955754</v>
+        <v>0.09867446867415389</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5997,16 +5997,16 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C326" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D326" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E326">
-        <v>0.1055702610537732</v>
+        <v>0.09831008318184958</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -6014,16 +6014,16 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C327" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D327" t="s">
         <v>26</v>
       </c>
       <c r="E327">
-        <v>0.1046052474526981</v>
+        <v>0.09793786340010262</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -6031,7 +6031,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C328" t="s">
         <v>22</v>
@@ -6040,7 +6040,7 @@
         <v>26</v>
       </c>
       <c r="E328">
-        <v>0.1045769708957153</v>
+        <v>0.09635038958313347</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -6048,16 +6048,16 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C329" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D329" t="s">
         <v>26</v>
       </c>
       <c r="E329">
-        <v>0.1044518328638019</v>
+        <v>0.09595875969680144</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -6065,16 +6065,16 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C330" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D330" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E330">
-        <v>0.1044182873630204</v>
+        <v>0.09460764106488349</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6082,16 +6082,16 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C331" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D331" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E331">
-        <v>0.1038934955425136</v>
+        <v>0.09389365084648356</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6099,16 +6099,16 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C332" t="s">
         <v>23</v>
       </c>
       <c r="D332" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E332">
-        <v>0.1019511409268534</v>
+        <v>0.09365764027894183</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6116,16 +6116,16 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C333" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D333" t="s">
         <v>26</v>
       </c>
       <c r="E333">
-        <v>0.09976038604930126</v>
+        <v>0.09355709815812976</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6133,16 +6133,16 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C334" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D334" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E334">
-        <v>0.09897433186107901</v>
+        <v>0.09146576361907227</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6150,16 +6150,16 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C335" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D335" t="s">
         <v>26</v>
       </c>
       <c r="E335">
-        <v>0.0985420725822076</v>
+        <v>0.08619745078907806</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6167,16 +6167,16 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C336" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D336" t="s">
         <v>26</v>
       </c>
       <c r="E336">
-        <v>0.09762282770064813</v>
+        <v>0.08487930056946198</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6184,16 +6184,16 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C337" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D337" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E337">
-        <v>0.0972438737945707</v>
+        <v>0.08400421406436179</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6201,16 +6201,16 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C338" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D338" t="s">
         <v>26</v>
       </c>
       <c r="E338">
-        <v>0.09723583147298341</v>
+        <v>0.08393871983084354</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6218,16 +6218,16 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C339" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D339" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E339">
-        <v>0.09644467345942452</v>
+        <v>0.08315751879257235</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6235,16 +6235,16 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C340" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D340" t="s">
         <v>26</v>
       </c>
       <c r="E340">
-        <v>0.09606495769034236</v>
+        <v>0.08312331430860927</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6252,16 +6252,16 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C341" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D341" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E341">
-        <v>0.09550360538244577</v>
+        <v>0.08170453812378606</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6269,16 +6269,16 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C342" t="s">
         <v>24</v>
       </c>
       <c r="D342" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E342">
-        <v>0.09202944598461314</v>
+        <v>0.08159748790625682</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6286,16 +6286,16 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C343" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D343" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E343">
-        <v>0.09186113666714471</v>
+        <v>0.08150820196844734</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6303,16 +6303,16 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C344" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D344" t="s">
         <v>28</v>
       </c>
       <c r="E344">
-        <v>0.09156854204899641</v>
+        <v>0.08132855725018939</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6320,16 +6320,16 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C345" t="s">
         <v>22</v>
       </c>
       <c r="D345" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E345">
-        <v>0.09096295171970231</v>
+        <v>0.08082215172261262</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6337,16 +6337,16 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C346" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D346" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E346">
-        <v>0.08997505328051648</v>
+        <v>0.07965380890034522</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6354,16 +6354,16 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C347" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D347" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E347">
-        <v>0.08918744072418919</v>
+        <v>0.07916234235010414</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6374,13 +6374,13 @@
         <v>17</v>
       </c>
       <c r="C348" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D348" t="s">
         <v>26</v>
       </c>
       <c r="E348">
-        <v>0.08866150165336389</v>
+        <v>0.07818762388018641</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6388,16 +6388,16 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C349" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D349" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E349">
-        <v>0.08735491269922956</v>
+        <v>0.07775684065509103</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6405,16 +6405,16 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C350" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D350" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E350">
-        <v>0.083668122803393</v>
+        <v>0.07746086724971241</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6422,16 +6422,16 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C351" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D351" t="s">
         <v>26</v>
       </c>
       <c r="E351">
-        <v>0.08334302352879057</v>
+        <v>0.07704449156254527</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6439,16 +6439,16 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C352" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D352" t="s">
         <v>29</v>
       </c>
       <c r="E352">
-        <v>0.08282727067841847</v>
+        <v>0.07668084749153813</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6456,16 +6456,16 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C353" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D353" t="s">
         <v>26</v>
       </c>
       <c r="E353">
-        <v>0.0826393790701056</v>
+        <v>0.07630723023176338</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6473,16 +6473,16 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C354" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D354" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E354">
-        <v>0.08255336264299964</v>
+        <v>0.07586820354868248</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6490,16 +6490,16 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C355" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D355" t="s">
         <v>26</v>
       </c>
       <c r="E355">
-        <v>0.08162221954633754</v>
+        <v>0.0754668068754006</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6507,16 +6507,16 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C356" t="s">
         <v>23</v>
       </c>
       <c r="D356" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E356">
-        <v>0.08144235236546665</v>
+        <v>0.07518041528485453</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6524,16 +6524,16 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C357" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D357" t="s">
         <v>29</v>
       </c>
       <c r="E357">
-        <v>0.07878699353376274</v>
+        <v>0.07361580144716352</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6541,16 +6541,16 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C358" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D358" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E358">
-        <v>0.07838140488752239</v>
+        <v>0.07140132585501845</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6561,13 +6561,13 @@
         <v>10</v>
       </c>
       <c r="C359" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D359" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E359">
-        <v>0.07818470239114289</v>
+        <v>0.07117182343331621</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6575,16 +6575,16 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C360" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D360" t="s">
         <v>26</v>
       </c>
       <c r="E360">
-        <v>0.07564988258163911</v>
+        <v>0.06895523672941105</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6592,16 +6592,16 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C361" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D361" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E361">
-        <v>0.07563149546513598</v>
+        <v>0.06869342409136668</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6609,16 +6609,16 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C362" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D362" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E362">
-        <v>0.07535471869815212</v>
+        <v>0.06692048765339063</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6626,16 +6626,16 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C363" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D363" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E363">
-        <v>0.07531756486611436</v>
+        <v>0.06552858461838096</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6643,16 +6643,16 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C364" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D364" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E364">
-        <v>0.07385626410861384</v>
+        <v>0.06546661951946875</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6669,7 +6669,7 @@
         <v>26</v>
       </c>
       <c r="E365">
-        <v>0.07273829575042325</v>
+        <v>0.06165767501960541</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6677,16 +6677,16 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C366" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D366" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E366">
-        <v>0.07260699332917994</v>
+        <v>0.05716291869036327</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6694,16 +6694,16 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C367" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D367" t="s">
         <v>26</v>
       </c>
       <c r="E367">
-        <v>0.07138152655309386</v>
+        <v>0.04651136953809248</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6714,13 +6714,13 @@
         <v>6</v>
       </c>
       <c r="C368" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D368" t="s">
         <v>26</v>
       </c>
       <c r="E368">
-        <v>0.07112591208807663</v>
+        <v>0.04594657100339988</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6728,16 +6728,16 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C369" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D369" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E369">
-        <v>0.06988945742180719</v>
+        <v>0.0405365616872671</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6745,16 +6745,16 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C370" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D370" t="s">
         <v>26</v>
       </c>
       <c r="E370">
-        <v>0.06805652994660179</v>
+        <v>0.03662311188778745</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6762,16 +6762,16 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C371" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D371" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E371">
-        <v>0.06546094428343593</v>
+        <v>0.03034297699834107</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6779,16 +6779,16 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C372" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D372" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E372">
-        <v>0.06342433377088892</v>
+        <v>0.02660358421925666</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6796,16 +6796,16 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C373" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D373" t="s">
         <v>26</v>
       </c>
       <c r="E373">
-        <v>0.06337777289060452</v>
+        <v>0.02047327958430539</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6813,16 +6813,16 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C374" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D374" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E374">
-        <v>0.06317837539107062</v>
+        <v>0.01889342826075004</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6830,16 +6830,16 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C375" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D375" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E375">
-        <v>0.06066618590929874</v>
+        <v>0.01696731578497269</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6847,16 +6847,16 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C376" t="s">
         <v>23</v>
       </c>
       <c r="D376" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E376">
-        <v>0.0589122122465273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6864,16 +6864,16 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C377" t="s">
         <v>23</v>
       </c>
       <c r="D377" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E377">
-        <v>0.0582804037269905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6881,16 +6881,16 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C378" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D378" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E378">
-        <v>0.05564722477801629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6898,16 +6898,16 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C379" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D379" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E379">
-        <v>0.05333544039161132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6915,16 +6915,16 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C380" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D380" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E380">
-        <v>0.05181372283207324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6932,16 +6932,16 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C381" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D381" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E381">
-        <v>0.05098191687425602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6949,16 +6949,16 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C382" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D382" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E382">
-        <v>0.03645818519669532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6966,16 +6966,16 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C383" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D383" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E383">
-        <v>0.02570146392199181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6986,13 +6986,13 @@
         <v>16</v>
       </c>
       <c r="C384" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D384" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E384">
-        <v>0.0196874103619937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -7000,16 +7000,16 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C385" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D385" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E385">
-        <v>0.008123688229069928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -7017,10 +7017,10 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C386" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D386" t="s">
         <v>27</v>
@@ -7034,10 +7034,10 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C387" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D387" t="s">
         <v>27</v>
@@ -7051,10 +7051,10 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C388" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D388" t="s">
         <v>27</v>
@@ -7068,7 +7068,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C389" t="s">
         <v>25</v>
@@ -7085,10 +7085,10 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C390" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D390" t="s">
         <v>27</v>
@@ -7102,10 +7102,10 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C391" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D391" t="s">
         <v>27</v>
@@ -7119,10 +7119,10 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C392" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D392" t="s">
         <v>27</v>
@@ -7136,10 +7136,10 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C393" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D393" t="s">
         <v>27</v>
@@ -7153,10 +7153,10 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C394" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D394" t="s">
         <v>27</v>
@@ -7170,7 +7170,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C395" t="s">
         <v>25</v>
@@ -7187,10 +7187,10 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C396" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D396" t="s">
         <v>27</v>
@@ -7204,10 +7204,10 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C397" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D397" t="s">
         <v>27</v>
@@ -7221,10 +7221,10 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C398" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D398" t="s">
         <v>27</v>
@@ -7238,7 +7238,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C399" t="s">
         <v>25</v>
@@ -7255,10 +7255,10 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C400" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D400" t="s">
         <v>27</v>
@@ -7272,7 +7272,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C401" t="s">
         <v>24</v>
@@ -7289,10 +7289,10 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C402" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D402" t="s">
         <v>27</v>
@@ -7306,7 +7306,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C403" t="s">
         <v>22</v>
@@ -7323,10 +7323,10 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C404" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D404" t="s">
         <v>27</v>
@@ -7340,10 +7340,10 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C405" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D405" t="s">
         <v>27</v>
@@ -7357,7 +7357,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C406" t="s">
         <v>25</v>
@@ -7374,10 +7374,10 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C407" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D407" t="s">
         <v>27</v>
@@ -7391,10 +7391,10 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C408" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D408" t="s">
         <v>27</v>
@@ -7408,10 +7408,10 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C409" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D409" t="s">
         <v>27</v>
@@ -7425,10 +7425,10 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C410" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D410" t="s">
         <v>27</v>
@@ -7459,10 +7459,10 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C412" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D412" t="s">
         <v>27</v>
@@ -7476,10 +7476,10 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C413" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D413" t="s">
         <v>27</v>
@@ -7493,10 +7493,10 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C414" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D414" t="s">
         <v>27</v>
@@ -7510,10 +7510,10 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C415" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D415" t="s">
         <v>27</v>
@@ -7527,7 +7527,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C416" t="s">
         <v>23</v>
@@ -7544,10 +7544,10 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C417" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D417" t="s">
         <v>27</v>
